--- a/测试集1.xlsx
+++ b/测试集1.xlsx
@@ -32,12 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>CA125</t>
   </si>
   <si>
     <t>CEA</t>
@@ -1015,24 +1012,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="8" width="9" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3"/>
-    <col min="10" max="16381" width="9" style="2"/>
-    <col min="16382" max="16384" width="9" style="4"/>
+    <col min="2" max="7" width="9" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9" style="3"/>
+    <col min="9" max="16380" width="9" style="2"/>
+    <col min="16381" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24.65" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="24.65" customHeight="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1057,36 +1054,30 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
+    <row r="2" s="2" customFormat="1" spans="1:8">
       <c r="A2" s="2">
         <v>47</v>
       </c>
       <c r="B2" s="2">
-        <v>20</v>
+        <v>3.26</v>
       </c>
       <c r="C2" s="2">
-        <v>3.26</v>
+        <v>161</v>
       </c>
       <c r="D2" s="2">
-        <v>161</v>
+        <v>27.1</v>
       </c>
       <c r="E2" s="2">
-        <v>27.1</v>
+        <v>16.1</v>
       </c>
       <c r="F2" s="2">
-        <v>16.1</v>
+        <v>3.24</v>
       </c>
       <c r="G2" s="2">
-        <v>3.24</v>
+        <v>0.22</v>
       </c>
       <c r="H2" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="I2" s="2">
         <v>320</v>
       </c>
     </row>
